--- a/src/assets/sim-profile-serial.xlsx
+++ b/src/assets/sim-profile-serial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B6F21C-8DE3-44AC-B30A-7DBF4270F688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7946DEA8-B064-49B7-ACBB-B09F053A532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB2EB0CE-4595-4697-908A-3052817E154A}"/>
+    <workbookView minimized="1" xWindow="2760" yWindow="645" windowWidth="15375" windowHeight="7875" xr2:uid="{FB2EB0CE-4595-4697-908A-3052817E154A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>0963555666</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>PRICE</t>
+  </si>
+  <si>
+    <t>sale_price</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>original_price</t>
+  </si>
+  <si>
+    <t>0993000001</t>
+  </si>
+  <si>
+    <t>0993000002</t>
   </si>
 </sst>
 </file>
@@ -78,9 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,55 +414,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C55E81C-165F-423E-B5B1-E83B1EEF8C39}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>888</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>888</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>888</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>888</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>55000</v>
+      </c>
+      <c r="C6">
+        <v>55000</v>
+      </c>
+      <c r="D6">
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>55000</v>
+      </c>
+      <c r="C7">
+        <v>55000</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>58000</v>
       </c>
     </row>
   </sheetData>
